--- a/data/7212.xlsx
+++ b/data/7212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42977,6 +42977,41 @@
         <v>1079000</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7212</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>DESTINI</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>927900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7212.xlsx
+++ b/data/7212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43012,6 +43012,41 @@
         <v>927900</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7212</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>DESTINI</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>1076500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7212.xlsx
+++ b/data/7212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43047,6 +43047,41 @@
         <v>1076500</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7212</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>DESTINI</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>1729600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7212.xlsx
+++ b/data/7212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43082,6 +43082,41 @@
         <v>1729600</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7212</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>DESTINI</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>1071500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7212.xlsx
+++ b/data/7212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43117,6 +43117,41 @@
         <v>1071500</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7212</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>DESTINI</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>934800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7212.xlsx
+++ b/data/7212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43152,6 +43152,41 @@
         <v>934800</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7212</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>DESTINI</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>7592800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7212.xlsx
+++ b/data/7212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43187,6 +43187,41 @@
         <v>7592800</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7212</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>DESTINI</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>2793100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7212.xlsx
+++ b/data/7212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43222,6 +43222,41 @@
         <v>2793100</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7212</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>DESTINI</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>1173200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7212.xlsx
+++ b/data/7212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43257,6 +43257,41 @@
         <v>1173200</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7212</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>DESTINI</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>2623800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7212.xlsx
+++ b/data/7212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43292,6 +43292,41 @@
         <v>2623800</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7212</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>DESTINI</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>14809800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7212.xlsx
+++ b/data/7212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43327,6 +43327,41 @@
         <v>14809800</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7212</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>DESTINI</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>3963500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7212.xlsx
+++ b/data/7212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43362,6 +43362,41 @@
         <v>3963500</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7212</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>DESTINI</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>3429600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7212.xlsx
+++ b/data/7212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43397,6 +43397,76 @@
         <v>3429600</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>7212</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>DESTINI</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>3823600</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>7212</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>DESTINI</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>3835300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7212.xlsx
+++ b/data/7212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43467,6 +43467,76 @@
         <v>3835300</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>7212</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>DESTINI</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>9821300</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>7212</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>DESTINI</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>2352100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7212.xlsx
+++ b/data/7212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43537,6 +43537,41 @@
         <v>2352100</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>7212</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>DESTINI</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>2909700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7212.xlsx
+++ b/data/7212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43572,6 +43572,41 @@
         <v>2909700</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>7212</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>DESTINI</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>4975700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7212.xlsx
+++ b/data/7212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43607,6 +43607,41 @@
         <v>4975700</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>7212</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>DESTINI</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>1592900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7212.xlsx
+++ b/data/7212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43642,6 +43642,41 @@
         <v>1592900</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>7212</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>DESTINI</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>4747800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7212.xlsx
+++ b/data/7212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43677,6 +43677,76 @@
         <v>4747800</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>7212</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>DESTINI</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>4417800</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>7212</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>DESTINI</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>9882500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7212.xlsx
+++ b/data/7212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43747,6 +43747,41 @@
         <v>9882500</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>7212</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>DESTINI</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>2555300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7212.xlsx
+++ b/data/7212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43782,6 +43782,41 @@
         <v>2555300</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>7212</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>DESTINI</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>400000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7212.xlsx
+++ b/data/7212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1901"/>
+  <dimension ref="A1:I1902"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66917,6 +66917,41 @@
         <v>400000</v>
       </c>
     </row>
+    <row r="1902">
+      <c r="A1902" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1902" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1902" t="inlineStr">
+        <is>
+          <t>7212</t>
+        </is>
+      </c>
+      <c r="D1902" t="inlineStr">
+        <is>
+          <t>DESTINI</t>
+        </is>
+      </c>
+      <c r="E1902" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F1902" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G1902" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1902" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1902" t="n">
+        <v>5082800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7212.xlsx
+++ b/data/7212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1902"/>
+  <dimension ref="A1:I1903"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66952,6 +66952,41 @@
         <v>5082800</v>
       </c>
     </row>
+    <row r="1903">
+      <c r="A1903" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1903" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1903" t="inlineStr">
+        <is>
+          <t>7212</t>
+        </is>
+      </c>
+      <c r="D1903" t="inlineStr">
+        <is>
+          <t>DESTINI</t>
+        </is>
+      </c>
+      <c r="E1903" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1903" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1903" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1903" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1903" t="n">
+        <v>6734600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7212.xlsx
+++ b/data/7212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1903"/>
+  <dimension ref="A1:I1904"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66987,6 +66987,41 @@
         <v>6734600</v>
       </c>
     </row>
+    <row r="1904">
+      <c r="A1904" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1904" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1904" t="inlineStr">
+        <is>
+          <t>7212</t>
+        </is>
+      </c>
+      <c r="D1904" t="inlineStr">
+        <is>
+          <t>DESTINI</t>
+        </is>
+      </c>
+      <c r="E1904" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1904" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1904" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1904" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1904" t="n">
+        <v>4328700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7212.xlsx
+++ b/data/7212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1904"/>
+  <dimension ref="A1:I1905"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67022,6 +67022,41 @@
         <v>4328700</v>
       </c>
     </row>
+    <row r="1905">
+      <c r="A1905" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1905" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1905" t="inlineStr">
+        <is>
+          <t>7212</t>
+        </is>
+      </c>
+      <c r="D1905" t="inlineStr">
+        <is>
+          <t>DESTINI</t>
+        </is>
+      </c>
+      <c r="E1905" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1905" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1905" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1905" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1905" t="n">
+        <v>3510200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7212.xlsx
+++ b/data/7212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1905"/>
+  <dimension ref="A1:I1906"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67057,6 +67057,41 @@
         <v>3510200</v>
       </c>
     </row>
+    <row r="1906">
+      <c r="A1906" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1906" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1906" t="inlineStr">
+        <is>
+          <t>7212</t>
+        </is>
+      </c>
+      <c r="D1906" t="inlineStr">
+        <is>
+          <t>DESTINI</t>
+        </is>
+      </c>
+      <c r="E1906" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1906" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1906" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1906" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1906" t="n">
+        <v>1419700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7212.xlsx
+++ b/data/7212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1906"/>
+  <dimension ref="A1:I1907"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67092,6 +67092,41 @@
         <v>1419700</v>
       </c>
     </row>
+    <row r="1907">
+      <c r="A1907" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1907" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1907" t="inlineStr">
+        <is>
+          <t>7212</t>
+        </is>
+      </c>
+      <c r="D1907" t="inlineStr">
+        <is>
+          <t>DESTINI</t>
+        </is>
+      </c>
+      <c r="E1907" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1907" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1907" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1907" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1907" t="n">
+        <v>2493000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7212.xlsx
+++ b/data/7212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1907"/>
+  <dimension ref="A1:I1908"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67127,6 +67127,41 @@
         <v>2493000</v>
       </c>
     </row>
+    <row r="1908">
+      <c r="A1908" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1908" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1908" t="inlineStr">
+        <is>
+          <t>7212</t>
+        </is>
+      </c>
+      <c r="D1908" t="inlineStr">
+        <is>
+          <t>DESTINI</t>
+        </is>
+      </c>
+      <c r="E1908" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1908" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1908" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H1908" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1908" t="n">
+        <v>2055600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7212.xlsx
+++ b/data/7212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1908"/>
+  <dimension ref="A1:I1909"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67162,6 +67162,41 @@
         <v>2055600</v>
       </c>
     </row>
+    <row r="1909">
+      <c r="A1909" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1909" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1909" t="inlineStr">
+        <is>
+          <t>7212</t>
+        </is>
+      </c>
+      <c r="D1909" t="inlineStr">
+        <is>
+          <t>DESTINI</t>
+        </is>
+      </c>
+      <c r="E1909" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1909" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1909" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1909" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1909" t="n">
+        <v>5585400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7212.xlsx
+++ b/data/7212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1909"/>
+  <dimension ref="A1:I1910"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67197,6 +67197,41 @@
         <v>5585400</v>
       </c>
     </row>
+    <row r="1910">
+      <c r="A1910" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1910" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1910" t="inlineStr">
+        <is>
+          <t>7212</t>
+        </is>
+      </c>
+      <c r="D1910" t="inlineStr">
+        <is>
+          <t>DESTINI</t>
+        </is>
+      </c>
+      <c r="E1910" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1910" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1910" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1910" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1910" t="n">
+        <v>1590100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7212.xlsx
+++ b/data/7212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1910"/>
+  <dimension ref="A1:I1911"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67232,6 +67232,41 @@
         <v>1590100</v>
       </c>
     </row>
+    <row r="1911">
+      <c r="A1911" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1911" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1911" t="inlineStr">
+        <is>
+          <t>7212</t>
+        </is>
+      </c>
+      <c r="D1911" t="inlineStr">
+        <is>
+          <t>DESTINI</t>
+        </is>
+      </c>
+      <c r="E1911" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1911" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1911" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H1911" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1911" t="n">
+        <v>6074300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7212.xlsx
+++ b/data/7212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1911"/>
+  <dimension ref="A1:I1912"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67267,6 +67267,41 @@
         <v>6074300</v>
       </c>
     </row>
+    <row r="1912">
+      <c r="A1912" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1912" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1912" t="inlineStr">
+        <is>
+          <t>7212</t>
+        </is>
+      </c>
+      <c r="D1912" t="inlineStr">
+        <is>
+          <t>DESTINI</t>
+        </is>
+      </c>
+      <c r="E1912" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1912" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1912" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1912" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I1912" t="n">
+        <v>2645400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7212.xlsx
+++ b/data/7212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1912"/>
+  <dimension ref="A1:I1913"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67302,6 +67302,41 @@
         <v>2645400</v>
       </c>
     </row>
+    <row r="1913">
+      <c r="A1913" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1913" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1913" t="inlineStr">
+        <is>
+          <t>7212</t>
+        </is>
+      </c>
+      <c r="D1913" t="inlineStr">
+        <is>
+          <t>DESTINI</t>
+        </is>
+      </c>
+      <c r="E1913" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F1913" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1913" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H1913" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1913" t="n">
+        <v>2354400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7212.xlsx
+++ b/data/7212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1913"/>
+  <dimension ref="A1:I1914"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67337,6 +67337,41 @@
         <v>2354400</v>
       </c>
     </row>
+    <row r="1914">
+      <c r="A1914" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1914" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1914" t="inlineStr">
+        <is>
+          <t>7212</t>
+        </is>
+      </c>
+      <c r="D1914" t="inlineStr">
+        <is>
+          <t>DESTINI</t>
+        </is>
+      </c>
+      <c r="E1914" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F1914" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G1914" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H1914" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1914" t="n">
+        <v>4064400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7212.xlsx
+++ b/data/7212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1914"/>
+  <dimension ref="A1:I1915"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67372,6 +67372,41 @@
         <v>4064400</v>
       </c>
     </row>
+    <row r="1915">
+      <c r="A1915" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1915" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1915" t="inlineStr">
+        <is>
+          <t>7212</t>
+        </is>
+      </c>
+      <c r="D1915" t="inlineStr">
+        <is>
+          <t>DESTINI</t>
+        </is>
+      </c>
+      <c r="E1915" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1915" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G1915" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1915" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I1915" t="n">
+        <v>6478200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7212.xlsx
+++ b/data/7212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1915"/>
+  <dimension ref="A1:I1916"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67407,6 +67407,41 @@
         <v>6478200</v>
       </c>
     </row>
+    <row r="1916">
+      <c r="A1916" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1916" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1916" t="inlineStr">
+        <is>
+          <t>7212</t>
+        </is>
+      </c>
+      <c r="D1916" t="inlineStr">
+        <is>
+          <t>DESTINI</t>
+        </is>
+      </c>
+      <c r="E1916" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F1916" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G1916" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H1916" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I1916" t="n">
+        <v>3454600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7212.xlsx
+++ b/data/7212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2804"/>
+  <dimension ref="A1:I2805"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98522,6 +98522,41 @@
         <v>3454600</v>
       </c>
     </row>
+    <row r="2805">
+      <c r="A2805" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2805" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2805" t="inlineStr">
+        <is>
+          <t>7212</t>
+        </is>
+      </c>
+      <c r="D2805" t="inlineStr">
+        <is>
+          <t>DESTINI</t>
+        </is>
+      </c>
+      <c r="E2805" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F2805" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G2805" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H2805" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I2805" t="n">
+        <v>3466100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7212.xlsx
+++ b/data/7212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2805"/>
+  <dimension ref="A1:I2806"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98557,6 +98557,41 @@
         <v>3466100</v>
       </c>
     </row>
+    <row r="2806">
+      <c r="A2806" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2806" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2806" t="inlineStr">
+        <is>
+          <t>7212</t>
+        </is>
+      </c>
+      <c r="D2806" t="inlineStr">
+        <is>
+          <t>DESTINI</t>
+        </is>
+      </c>
+      <c r="E2806" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F2806" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G2806" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H2806" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I2806" t="n">
+        <v>4648100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7212.xlsx
+++ b/data/7212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2806"/>
+  <dimension ref="A1:I2807"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98592,6 +98592,41 @@
         <v>4648100</v>
       </c>
     </row>
+    <row r="2807">
+      <c r="A2807" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2807" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2807" t="inlineStr">
+        <is>
+          <t>7212</t>
+        </is>
+      </c>
+      <c r="D2807" t="inlineStr">
+        <is>
+          <t>DESTINI</t>
+        </is>
+      </c>
+      <c r="E2807" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F2807" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G2807" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H2807" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I2807" t="n">
+        <v>3254200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7212.xlsx
+++ b/data/7212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2807"/>
+  <dimension ref="A1:I2808"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98627,6 +98627,41 @@
         <v>3254200</v>
       </c>
     </row>
+    <row r="2808">
+      <c r="A2808" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2808" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2808" t="inlineStr">
+        <is>
+          <t>7212</t>
+        </is>
+      </c>
+      <c r="D2808" t="inlineStr">
+        <is>
+          <t>DESTINI</t>
+        </is>
+      </c>
+      <c r="E2808" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F2808" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G2808" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H2808" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I2808" t="n">
+        <v>3645300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7212.xlsx
+++ b/data/7212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2808"/>
+  <dimension ref="A1:I2809"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98662,6 +98662,41 @@
         <v>3645300</v>
       </c>
     </row>
+    <row r="2809">
+      <c r="A2809" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2809" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2809" t="inlineStr">
+        <is>
+          <t>7212</t>
+        </is>
+      </c>
+      <c r="D2809" t="inlineStr">
+        <is>
+          <t>DESTINI</t>
+        </is>
+      </c>
+      <c r="E2809" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F2809" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G2809" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H2809" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I2809" t="n">
+        <v>3078900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7212.xlsx
+++ b/data/7212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2809"/>
+  <dimension ref="A1:I2810"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98697,6 +98697,41 @@
         <v>3078900</v>
       </c>
     </row>
+    <row r="2810">
+      <c r="A2810" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2810" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2810" t="inlineStr">
+        <is>
+          <t>7212</t>
+        </is>
+      </c>
+      <c r="D2810" t="inlineStr">
+        <is>
+          <t>DESTINI</t>
+        </is>
+      </c>
+      <c r="E2810" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F2810" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G2810" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H2810" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I2810" t="n">
+        <v>1991500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7212.xlsx
+++ b/data/7212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2810"/>
+  <dimension ref="A1:I2811"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98732,6 +98732,41 @@
         <v>1991500</v>
       </c>
     </row>
+    <row r="2811">
+      <c r="A2811" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2811" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2811" t="inlineStr">
+        <is>
+          <t>7212</t>
+        </is>
+      </c>
+      <c r="D2811" t="inlineStr">
+        <is>
+          <t>DESTINI</t>
+        </is>
+      </c>
+      <c r="E2811" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F2811" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G2811" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H2811" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I2811" t="n">
+        <v>1485200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7212.xlsx
+++ b/data/7212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2811"/>
+  <dimension ref="A1:I2812"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98767,6 +98767,41 @@
         <v>1485200</v>
       </c>
     </row>
+    <row r="2812">
+      <c r="A2812" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2812" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2812" t="inlineStr">
+        <is>
+          <t>7212</t>
+        </is>
+      </c>
+      <c r="D2812" t="inlineStr">
+        <is>
+          <t>DESTINI</t>
+        </is>
+      </c>
+      <c r="E2812" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F2812" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G2812" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H2812" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I2812" t="n">
+        <v>1899300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7212.xlsx
+++ b/data/7212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2812"/>
+  <dimension ref="A1:I2813"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98802,6 +98802,41 @@
         <v>1899300</v>
       </c>
     </row>
+    <row r="2813">
+      <c r="A2813" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2813" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2813" t="inlineStr">
+        <is>
+          <t>7212</t>
+        </is>
+      </c>
+      <c r="D2813" t="inlineStr">
+        <is>
+          <t>DESTINI</t>
+        </is>
+      </c>
+      <c r="E2813" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F2813" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G2813" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H2813" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I2813" t="n">
+        <v>4050800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7212.xlsx
+++ b/data/7212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2813"/>
+  <dimension ref="A1:I2814"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98837,6 +98837,41 @@
         <v>4050800</v>
       </c>
     </row>
+    <row r="2814">
+      <c r="A2814" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2814" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2814" t="inlineStr">
+        <is>
+          <t>7212</t>
+        </is>
+      </c>
+      <c r="D2814" t="inlineStr">
+        <is>
+          <t>DESTINI</t>
+        </is>
+      </c>
+      <c r="E2814" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F2814" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G2814" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H2814" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I2814" t="n">
+        <v>6598900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7212.xlsx
+++ b/data/7212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2814"/>
+  <dimension ref="A1:I2816"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98872,6 +98872,76 @@
         <v>6598900</v>
       </c>
     </row>
+    <row r="2815">
+      <c r="A2815" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2815" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2815" t="inlineStr">
+        <is>
+          <t>7212</t>
+        </is>
+      </c>
+      <c r="D2815" t="inlineStr">
+        <is>
+          <t>DESTINI</t>
+        </is>
+      </c>
+      <c r="E2815" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F2815" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G2815" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H2815" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I2815" t="n">
+        <v>5062000</v>
+      </c>
+    </row>
+    <row r="2816">
+      <c r="A2816" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2816" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2816" t="inlineStr">
+        <is>
+          <t>7212</t>
+        </is>
+      </c>
+      <c r="D2816" t="inlineStr">
+        <is>
+          <t>DESTINI</t>
+        </is>
+      </c>
+      <c r="E2816" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F2816" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G2816" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H2816" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I2816" t="n">
+        <v>4433800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7212.xlsx
+++ b/data/7212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2816"/>
+  <dimension ref="A1:I2817"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98942,6 +98942,41 @@
         <v>4433800</v>
       </c>
     </row>
+    <row r="2817">
+      <c r="A2817" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2817" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2817" t="inlineStr">
+        <is>
+          <t>7212</t>
+        </is>
+      </c>
+      <c r="D2817" t="inlineStr">
+        <is>
+          <t>DESTINI</t>
+        </is>
+      </c>
+      <c r="E2817" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F2817" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G2817" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H2817" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I2817" t="n">
+        <v>4316800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7212.xlsx
+++ b/data/7212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2817"/>
+  <dimension ref="A1:I2820"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98977,6 +98977,111 @@
         <v>4316800</v>
       </c>
     </row>
+    <row r="2818">
+      <c r="A2818" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2818" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2818" t="inlineStr">
+        <is>
+          <t>7212</t>
+        </is>
+      </c>
+      <c r="D2818" t="inlineStr">
+        <is>
+          <t>DESTINI</t>
+        </is>
+      </c>
+      <c r="E2818" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F2818" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G2818" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H2818" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I2818" t="n">
+        <v>1490600</v>
+      </c>
+    </row>
+    <row r="2819">
+      <c r="A2819" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2819" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2819" t="inlineStr">
+        <is>
+          <t>7212</t>
+        </is>
+      </c>
+      <c r="D2819" t="inlineStr">
+        <is>
+          <t>DESTINI</t>
+        </is>
+      </c>
+      <c r="E2819" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F2819" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G2819" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H2819" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I2819" t="n">
+        <v>2237100</v>
+      </c>
+    </row>
+    <row r="2820">
+      <c r="A2820" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2820" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2820" t="inlineStr">
+        <is>
+          <t>7212</t>
+        </is>
+      </c>
+      <c r="D2820" t="inlineStr">
+        <is>
+          <t>DESTINI</t>
+        </is>
+      </c>
+      <c r="E2820" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F2820" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G2820" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H2820" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I2820" t="n">
+        <v>1328000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7212.xlsx
+++ b/data/7212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2820"/>
+  <dimension ref="A1:I2821"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99082,6 +99082,41 @@
         <v>1328000</v>
       </c>
     </row>
+    <row r="2821">
+      <c r="A2821" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2821" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2821" t="inlineStr">
+        <is>
+          <t>7212</t>
+        </is>
+      </c>
+      <c r="D2821" t="inlineStr">
+        <is>
+          <t>DESTINI</t>
+        </is>
+      </c>
+      <c r="E2821" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F2821" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G2821" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H2821" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I2821" t="n">
+        <v>3208800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7212.xlsx
+++ b/data/7212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2821"/>
+  <dimension ref="A1:I2822"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99117,6 +99117,41 @@
         <v>3208800</v>
       </c>
     </row>
+    <row r="2822">
+      <c r="A2822" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2822" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2822" t="inlineStr">
+        <is>
+          <t>7212</t>
+        </is>
+      </c>
+      <c r="D2822" t="inlineStr">
+        <is>
+          <t>DESTINI</t>
+        </is>
+      </c>
+      <c r="E2822" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F2822" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G2822" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H2822" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I2822" t="n">
+        <v>6804500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7212.xlsx
+++ b/data/7212.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2822"/>
+  <dimension ref="A1:I2825"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99152,6 +99152,111 @@
         <v>6804500</v>
       </c>
     </row>
+    <row r="2823">
+      <c r="A2823" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2823" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2823" t="inlineStr">
+        <is>
+          <t>7212</t>
+        </is>
+      </c>
+      <c r="D2823" t="inlineStr">
+        <is>
+          <t>DESTINI</t>
+        </is>
+      </c>
+      <c r="E2823" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F2823" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G2823" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H2823" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I2823" t="n">
+        <v>6369600</v>
+      </c>
+    </row>
+    <row r="2824">
+      <c r="A2824" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2824" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2824" t="inlineStr">
+        <is>
+          <t>7212</t>
+        </is>
+      </c>
+      <c r="D2824" t="inlineStr">
+        <is>
+          <t>DESTINI</t>
+        </is>
+      </c>
+      <c r="E2824" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F2824" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G2824" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H2824" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I2824" t="n">
+        <v>3131700</v>
+      </c>
+    </row>
+    <row r="2825">
+      <c r="A2825" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2825" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2825" t="inlineStr">
+        <is>
+          <t>7212</t>
+        </is>
+      </c>
+      <c r="D2825" t="inlineStr">
+        <is>
+          <t>DESTINI</t>
+        </is>
+      </c>
+      <c r="E2825" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F2825" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G2825" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H2825" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I2825" t="n">
+        <v>3120500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
